--- a/Locators/DataSheet.xlsx
+++ b/Locators/DataSheet.xlsx
@@ -4,6 +4,8 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Ask A Question" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="I need Something" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Something is Broken" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Office</t>
   </si>
@@ -29,6 +31,36 @@
   </si>
   <si>
     <t>Testdesc</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Urgency</t>
+  </si>
+  <si>
+    <t>Contact Number</t>
+  </si>
+  <si>
+    <t>Applications</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>TEST DESC</t>
+  </si>
+  <si>
+    <t>Editorial</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>TEST SUM</t>
+  </si>
+  <si>
+    <t>DESC TEST</t>
   </si>
 </sst>
 </file>
@@ -76,6 +108,14 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -308,4 +348,102 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8.123979546E9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1">
+        <v>9.663826678E9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Locators/DataSheet.xlsx
+++ b/Locators/DataSheet.xlsx
@@ -6,6 +6,9 @@
     <sheet state="visible" name="Ask A Question" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="I need Something" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Something is Broken" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Access" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="DAM Enhancement Request" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Workday Europe Support Model" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>Office</t>
   </si>
@@ -42,15 +45,6 @@
     <t>Contact Number</t>
   </si>
   <si>
-    <t>Applications</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>TEST DESC</t>
-  </si>
-  <si>
     <t>Editorial</t>
   </si>
   <si>
@@ -60,7 +54,73 @@
     <t>TEST SUM</t>
   </si>
   <si>
+    <t>8123979546</t>
+  </si>
+  <si>
     <t>DESC TEST</t>
+  </si>
+  <si>
+    <t>Application Required</t>
+  </si>
+  <si>
+    <t>Okta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum test </t>
+  </si>
+  <si>
+    <t>Desc test</t>
+  </si>
+  <si>
+    <t>Requested for</t>
+  </si>
+  <si>
+    <t>DAM Platform</t>
+  </si>
+  <si>
+    <t>Editorial Role</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Business Justification</t>
+  </si>
+  <si>
+    <t>Use Case</t>
+  </si>
+  <si>
+    <t>Divya Balasubramanya</t>
+  </si>
+  <si>
+    <t>1WTC NY</t>
+  </si>
+  <si>
+    <t>DAM</t>
+  </si>
+  <si>
+    <t>Picture Editor</t>
+  </si>
+  <si>
+    <t>Allure</t>
+  </si>
+  <si>
+    <t>Test Sum</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>Use Test</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>test desc</t>
   </si>
 </sst>
 </file>
@@ -92,11 +152,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -116,6 +179,18 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -385,13 +460,13 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1">
-        <v>8.123979546E9</v>
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -428,19 +503,168 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1">
         <v>9.663826678E9</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="29.43"/>
+    <col customWidth="1" min="2" max="2" width="31.71"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="32.71"/>
+    <col customWidth="1" min="8" max="8" width="26.57"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Locators/DataSheet.xlsx
+++ b/Locators/DataSheet.xlsx
@@ -5,10 +5,12 @@
   <sheets>
     <sheet state="visible" name="Ask A Question" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="I need Something" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Something is Broken" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Access" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="DAM Enhancement Request" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Workday Europe Support Model" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Editorial Systems Incident" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Something is Broken" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Access" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="DAM Enhancement Request" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Password Reset" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="Workday Europe Support Model" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -16,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
   <si>
     <t>Office</t>
   </si>
@@ -60,6 +62,51 @@
     <t>DESC TEST</t>
   </si>
   <si>
+    <t>Caller</t>
+  </si>
+  <si>
+    <t>Affected User</t>
+  </si>
+  <si>
+    <t>Editorial Platform</t>
+  </si>
+  <si>
+    <t>Issue Type</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Operating Systems</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>Divya Balasubramanya</t>
+  </si>
+  <si>
+    <t>1WTC NY</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>Access</t>
+  </si>
+  <si>
+    <t>Sum test</t>
+  </si>
+  <si>
+    <t>Desc test</t>
+  </si>
+  <si>
+    <t>9663826678</t>
+  </si>
+  <si>
     <t>Application Required</t>
   </si>
   <si>
@@ -69,9 +116,6 @@
     <t xml:space="preserve">Sum test </t>
   </si>
   <si>
-    <t>Desc test</t>
-  </si>
-  <si>
     <t>Requested for</t>
   </si>
   <si>
@@ -90,12 +134,6 @@
     <t>Use Case</t>
   </si>
   <si>
-    <t>Divya Balasubramanya</t>
-  </si>
-  <si>
-    <t>1WTC NY</t>
-  </si>
-  <si>
     <t>DAM</t>
   </si>
   <si>
@@ -112,6 +150,18 @@
   </si>
   <si>
     <t>Use Test</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>OKTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST </t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
   <si>
     <t>Issue</t>
@@ -152,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -162,6 +212,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -191,6 +242,14 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -483,6 +542,89 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="27.0"/>
+    <col customWidth="1" min="3" max="3" width="31.29"/>
+    <col customWidth="1" min="5" max="5" width="22.14"/>
+    <col customWidth="1" min="8" max="8" width="25.29"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -511,8 +653,8 @@
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1">
-        <v>9.663826678E9</v>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
@@ -523,7 +665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -539,7 +681,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -550,13 +692,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -564,7 +706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -580,7 +722,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -589,51 +731,45 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -641,7 +777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -653,7 +789,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -661,10 +837,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
